--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\01.10.24_playwright_test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C9F3FE-9A74-4596-AB2B-5B942C6DBA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854AA7F-C097-4EF8-BBE0-849ED9FCB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="TС001" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t xml:space="preserve">The "Sign Up / Зареєструватися" page is displayed </t>
   </si>
   <si>
-    <t>Verify that a unregistered user can log in.</t>
-  </si>
-  <si>
     <t>Click on the “Login / Увійти” path.</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>TC002</t>
+  </si>
+  <si>
+    <t>Verify that an unregistered user cannot log in.</t>
   </si>
 </sst>
 </file>
@@ -448,9 +448,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,11 +470,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,54 +815,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD025417-5E55-4D4E-8F43-D170C98A934B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -879,52 +879,52 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -941,56 +941,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A09508-B006-4425-B23E-E4B9AFA36A3A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="3" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1007,50 +1007,50 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1075,222 +1075,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="8" t="s">
         <v>49</v>
       </c>
     </row>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\01.10.24_playwright_test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7854AA7F-C097-4EF8-BBE0-849ED9FCB3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9599D64-1C1B-47EA-AFFA-5F31452FA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="TС001" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Click on the “Login / Увійти” path.</t>
   </si>
   <si>
-    <t xml:space="preserve">The "Login / Увійти" page is opened </t>
-  </si>
-  <si>
     <t>Click the “Submit / Вхід” button.</t>
   </si>
   <si>
@@ -341,6 +338,21 @@
   </si>
   <si>
     <t>Verify that an unregistered user cannot log in.</t>
+  </si>
+  <si>
+    <t>The entered data is displayed in the fields.</t>
+  </si>
+  <si>
+    <t>The "Login / Увійти" page is opened .</t>
+  </si>
+  <si>
+    <t>The main page is displayed.</t>
+  </si>
+  <si>
+    <t>Open the website.</t>
+  </si>
+  <si>
+    <t>The error message  is displayed.</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD025417-5E55-4D4E-8F43-D170C98A934B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -836,7 +850,7 @@
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>8</v>
@@ -941,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A09508-B006-4425-B23E-E4B9AFA36A3A}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,10 +978,10 @@
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1011,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -1026,7 +1040,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -1038,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -1047,9 +1061,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="5"/>
     </row>
   </sheetData>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\01.10.24_playwright_test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9599D64-1C1B-47EA-AFFA-5F31452FA6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E54C0-C11F-4FFB-A74A-B49A3AA10037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="TС001" sheetId="1" r:id="rId1"/>
     <sheet name="TC002" sheetId="3" r:id="rId2"/>
-    <sheet name="Аркуш2" sheetId="2" r:id="rId3"/>
+    <sheet name="TC003" sheetId="4" r:id="rId3"/>
+    <sheet name="Аркуш2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -353,6 +354,48 @@
   </si>
   <si>
     <t>The error message  is displayed.</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Checking the visibility of site blocks.</t>
+  </si>
+  <si>
+    <t>The top-menu is visible.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the header.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the top-menu.</t>
+  </si>
+  <si>
+    <t>The header is visible.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the main content area.</t>
+  </si>
+  <si>
+    <t>The main content area is visible.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the sidebar.</t>
+  </si>
+  <si>
+    <t>The sidebar is visible.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The content is visible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The footer is visible.</t>
+  </si>
+  <si>
+    <t>Verify the visibility of the footer.</t>
   </si>
 </sst>
 </file>
@@ -377,21 +420,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13.5"/>
       <color rgb="FF111111"/>
       <name val="Segoe UI"/>
@@ -408,10 +436,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="3" tint="0.249977111117893"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -457,39 +500,39 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -827,118 +870,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD025417-5E55-4D4E-8F43-D170C98A934B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -956,117 +997,117 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="2" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="12"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1080,6 +1121,166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B555BD6B-6273-4833-8521-49A31B4273FA}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C2774-1D16-4656-AD17-9E56A0DB93EF}">
   <dimension ref="A1:A45"/>
   <sheetViews>
@@ -1091,222 +1292,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="22.8" customHeight="1" collapsed="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="22.8" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
     </row>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\01.10.24_playwright_test_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E54C0-C11F-4FFB-A74A-B49A3AA10037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB388C48-D277-4CE6-96CD-50AD91E77200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="TС001" sheetId="1" r:id="rId1"/>
     <sheet name="TC002" sheetId="3" r:id="rId2"/>
     <sheet name="TC003" sheetId="4" r:id="rId3"/>
-    <sheet name="Аркуш2" sheetId="2" r:id="rId4"/>
+    <sheet name="TC004" sheetId="5" r:id="rId4"/>
+    <sheet name="-" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -396,6 +397,132 @@
   </si>
   <si>
     <t>Verify the visibility of the footer.</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Click all elements in main-menu and take screenshots</t>
+  </si>
+  <si>
+    <t>The website is accessible.</t>
+  </si>
+  <si>
+    <t>Click on the first element in the main-menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the first element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_1.png is saved.	</t>
+  </si>
+  <si>
+    <t>The "Overview" page is
+shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the second element in the main-menu.	</t>
+  </si>
+  <si>
+    <t>The "Download" page is
+shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_2.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the second  element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the third element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the third  element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_3.png is saved.	</t>
+  </si>
+  <si>
+    <t>The "Activity" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "Roadmap" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "Issues" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "News" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "Wiki" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "Boards" page is
+shown</t>
+  </si>
+  <si>
+    <t>The "Repository" page is
+shown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the fourth  element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the fourth   element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_4.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_5.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_6.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_7.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_8.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screenshot tc004_9.png is saved.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the fifth  element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the fifth   element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the sixth  element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the sixth   element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the seventh  element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the eighth   element.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the eighth  element in the main-menu.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the seventh  element.	</t>
+  </si>
+  <si>
+    <t>Click on the ninth element in the main-menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a screenshot after clicking the ninth element.	</t>
   </si>
 </sst>
 </file>
@@ -518,9 +645,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,10 +653,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,50 +1001,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="7.77734375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -934,52 +1061,52 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1002,50 +1129,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="7.77734375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1062,52 +1189,52 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1124,52 +1251,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B555BD6B-6273-4833-8521-49A31B4273FA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="8" customWidth="1"/>
-    <col min="2" max="4" width="35.77734375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="7.77734375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1186,88 +1313,88 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>5</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1281,10 +1408,320 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D13C0-2BCB-4A7E-8A2C-0B3DE7CAEF55}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.77734375" style="7" customWidth="1"/>
+    <col min="2" max="4" width="35.77734375" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>19</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C2774-1D16-4656-AD17-9E56A0DB93EF}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\01.10.24_playwright_test_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\TEST_QA\PlaywrightAllure_01.10.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D53264-808B-4940-9D0D-6FB164B5825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55D6DBD-8863-4A46-A12A-701846E1CAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D8ED03EB-D1E7-42B6-859E-1311B2703C5B}"/>
   </bookViews>
   <sheets>
     <sheet name="TС001" sheetId="1" r:id="rId1"/>
@@ -190,10 +190,6 @@
     <t xml:space="preserve">Click on the second element in the main-menu.	</t>
   </si>
   <si>
-    <t>The "Download" page is
-shown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Screenshot tc004_2.png is saved.	</t>
   </si>
   <si>
@@ -209,34 +205,6 @@
     <t xml:space="preserve">Screenshot tc004_3.png is saved.	</t>
   </si>
   <si>
-    <t>The "Activity" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "Roadmap" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "Issues" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "News" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "Wiki" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "Boards" page is
-shown</t>
-  </si>
-  <si>
-    <t>The "Repository" page is
-shown</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on the fourth  element in the main-menu.	</t>
   </si>
   <si>
@@ -355,6 +323,30 @@
   </si>
   <si>
     <t>Scroll to the "Redmine books" section.</t>
+  </si>
+  <si>
+    <t>The "Download" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Activity" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Roadmap" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Issues" page is shown.</t>
+  </si>
+  <si>
+    <t>The "News" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Wiki" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Boards" page is shown.</t>
+  </si>
+  <si>
+    <t>The "Repository" page is shown.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD025417-5E55-4D4E-8F43-D170C98A934B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
@@ -1050,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B555BD6B-6273-4833-8521-49A31B4273FA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C34D13C0-2BCB-4A7E-8A2C-0B3DE7CAEF55}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1319,7 +1311,7 @@
         <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -1328,10 +1320,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -1340,10 +1332,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -1352,10 +1344,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -1364,10 +1356,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -1376,10 +1368,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -1388,10 +1380,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -1400,10 +1392,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1412,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -1424,10 +1416,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -1436,10 +1428,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -1448,10 +1440,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -1460,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -1472,10 +1464,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -1484,10 +1476,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -1496,10 +1488,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -1518,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BAE82B-1D3E-4641-850C-0AC98BC03F15}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,10 +1533,10 @@
     </row>
     <row r="2" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1564,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1588,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>24</v>
@@ -1600,10 +1592,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1612,10 +1604,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1624,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1636,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1650,10 +1642,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1662,10 +1654,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1674,10 +1666,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1686,13 +1678,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
